--- a/back/lecturer2.xlsx
+++ b/back/lecturer2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">Giảng viên</t>
   </si>
@@ -52,22 +52,40 @@
     <t xml:space="preserve">TS. Nguyễn Thị B</t>
   </si>
   <si>
+    <t xml:space="preserve">b1@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">TS. Nguyễn Thị C</t>
   </si>
   <si>
+    <t xml:space="preserve">c1@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">TS. Nguyễn Thị D</t>
   </si>
   <si>
+    <t xml:space="preserve">d1@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PGS. TS. Trần Văn A</t>
   </si>
   <si>
+    <t xml:space="preserve">e1@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tiếng nhật</t>
   </si>
   <si>
     <t xml:space="preserve">PGS. TS. Trần Văn B</t>
   </si>
   <si>
+    <t xml:space="preserve">g1@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">PGS. TS. Trần Văn C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -77,11 +95,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -129,6 +148,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -231,15 +256,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,10 +288,10 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
@@ -314,7 +339,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -328,10 +353,10 @@
     </row>
     <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -345,10 +370,10 @@
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -362,16 +387,16 @@
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>1</v>
@@ -379,16 +404,16 @@
     </row>
     <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
@@ -396,16 +421,16 @@
     </row>
     <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>1</v>
